--- a/biology/Zoologie/Colin_élégant/Colin_élégant.xlsx
+++ b/biology/Zoologie/Colin_élégant/Colin_élégant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colin_%C3%A9l%C3%A9gant</t>
+          <t>Colin_élégant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callipepla douglasii
 Le Colin élégant (Callipepla douglasii) est une espèce d'oiseau galliforme appartenant à la famille des Odontophoridae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colin_%C3%A9l%C3%A9gant</t>
+          <t>Colin_élégant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure en moyenne 23 cm de longueur pour un poids de 180 g. Il porte une grande crête de plumes dorées inclinées vers l'arrière sur une tête fortement rayée. La face est grise avec un peu de noir. Les ailes sont brunes et le reste du corps est gris avec des taches blanches.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colin_%C3%A9l%C3%A9gant</t>
+          <t>Colin_élégant</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique de la Sierra Madre Occidentale (Mexique). Il vit dans les bois d'épineux depuis le centre de Sonora et l'ouest de Chihuahua jusqu'à Colima.
 </t>
